--- a/AquQiBalans/bron_materiaal/AcuQiBalans website - aanpassingen kleur code - reactie Sandy.xlsx
+++ b/AquQiBalans/bron_materiaal/AcuQiBalans website - aanpassingen kleur code - reactie Sandy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d670b2b4d3da450/OD AcuQiBalans bedrijf/1 opzet bedrijf/website opzet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://i1share-my.sharepoint.com/personal/christopher_vandenberg_i-share_nl/Documents/Documenten/Development/AquQibalans/acuqibalans/AquQiBalans/bron_materiaal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{5DCC7885-AD3E-4747-A178-CE8637F1AE23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E49E387F-1696-4CA7-B6C8-D73A133CAF53}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="13_ncr:1_{5DCC7885-AD3E-4747-A178-CE8637F1AE23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AF1B8570-CC28-4FCA-AD93-B80AB75945EE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{848FF59C-0B30-4D24-9A4C-E68469DD6AAA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{848FF59C-0B30-4D24-9A4C-E68469DD6AAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="160">
   <si>
     <t>Contact</t>
   </si>
@@ -493,6 +493,18 @@
   </si>
   <si>
     <t>De klant moet het makkelijk invoeren en wij moeten het in een handig overzicht per mail ontvangen. Dit vergt denk ik nog wel afstemming. Wij zullen aangeven welke vragen we de klant stellen en wat onze voorkeur is om het in de mail te ontvangen in een overzicht.</t>
+  </si>
+  <si>
+    <t>Ivm mobile en Web versie gekozen om bellen in web weg te laten</t>
+  </si>
+  <si>
+    <t>15 mei 2021 veranderingen KBW</t>
+  </si>
+  <si>
+    <t>KBW: 15 mei aanpassing verwerkt zie G kolom met kleur groen</t>
+  </si>
+  <si>
+    <t>Telefoon nummer toegevoegd aan contact pagina</t>
   </si>
 </sst>
 </file>
@@ -526,7 +538,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,6 +605,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -606,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -684,9 +702,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -702,7 +729,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -998,998 +1025,1215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCACC38C-EF24-4B22-90B1-1AFB77B24087}">
-  <dimension ref="A2:G147"/>
+  <dimension ref="A2:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G111" sqref="G111:G112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="86.81640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="43.7265625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="58.36328125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="3.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="86.77734375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="43.77734375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="58.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" style="16" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
       <c r="B4" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
       <c r="B5" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B7" s="17" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="25"/>
+      <c r="B6" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="18" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F10" s="16" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="18"/>
-      <c r="C10" s="8" t="s">
+      <c r="G10" s="27"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="18"/>
+      <c r="C11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="C11" s="8" t="s">
+      <c r="F11" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="29"/>
+    </row>
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C12" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C13" s="9" t="s">
+      <c r="F12" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C14" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C14" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="F14" s="16" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="C16" s="9" t="s">
+      <c r="G14" s="29"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G16" s="29"/>
+    </row>
+    <row r="17" spans="2:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C17" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E17" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F17" s="22" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C17" s="8" t="s">
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C18" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D18" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="2:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="2:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="18" t="s">
+      <c r="E18" s="10"/>
+      <c r="F18" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="29"/>
+    </row>
+    <row r="19" spans="2:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="29"/>
+    </row>
+    <row r="20" spans="2:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="G20" s="29"/>
+    </row>
+    <row r="21" spans="2:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="2:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="19" t="s">
+      <c r="F21" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="2:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="G22" s="29"/>
+    </row>
+    <row r="23" spans="2:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="2:6" ht="61" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="20"/>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="G23" s="29"/>
+    </row>
+    <row r="24" spans="2:7" ht="61.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="20"/>
+      <c r="C24" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="23" t="s">
+      <c r="F24" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="2:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F25" s="24" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B26" s="18" t="s">
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G26" s="29"/>
+    </row>
+    <row r="27" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" ht="87" x14ac:dyDescent="0.35">
-      <c r="B27" s="16" t="s">
+      <c r="G27" s="29"/>
+    </row>
+    <row r="28" spans="2:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E28" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F28" s="22" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="C28" s="9" t="s">
+      <c r="G28" s="29"/>
+    </row>
+    <row r="29" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C29" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="22"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C29" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="22"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G29" s="29"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C30" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="22"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G30" s="29"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C31" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="22"/>
-    </row>
-    <row r="32" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="C32" s="12" t="s">
+      <c r="G31" s="29"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="29"/>
+    </row>
+    <row r="33" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C33" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E33" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="F32" s="22"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="18" t="s">
+      <c r="F33" s="22"/>
+      <c r="G33" s="29"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G34" s="29"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="16" t="s">
+      <c r="G35" s="29"/>
+    </row>
+    <row r="36" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B36" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C36" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F36" s="16" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="C36" s="9" t="s">
+      <c r="G36" s="29"/>
+    </row>
+    <row r="37" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C37" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C37" s="9" t="s">
+      <c r="G37" s="29"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C38" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C38" s="9" t="s">
+      <c r="G38" s="29"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C39" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C39" s="9" t="s">
+      <c r="G39" s="29"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C40" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="C40" s="13" t="s">
+      <c r="G40" s="29"/>
+    </row>
+    <row r="41" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C41" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B42" s="16" t="s">
+      <c r="G41" s="29"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G42" s="29"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F42" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B44" s="16" t="s">
+      <c r="F43" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="G43" s="27"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G44" s="29"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F44" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="C45" s="8" t="s">
+      <c r="F45" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="G45" s="27"/>
+    </row>
+    <row r="46" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C46" s="8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="46" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="C46" s="8" t="s">
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+    </row>
+    <row r="47" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C47" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-    </row>
-    <row r="47" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="C47" s="8" t="s">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+    </row>
+    <row r="48" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C48" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="F48" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B49" s="16" t="s">
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F49" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G49" s="29"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C50" s="8" t="s">
+      <c r="G50" s="27"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C51" s="8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C51" s="8" t="s">
+      <c r="G51" s="27"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C52" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B53" s="16" t="s">
+      <c r="G52" s="27"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G53" s="27"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F53" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C54" s="8" t="s">
+      <c r="F54" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G54" s="27"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C55" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="55" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="C55" s="8" t="s">
+      <c r="G55" s="27"/>
+    </row>
+    <row r="56" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C56" s="8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C56" s="8" t="s">
+      <c r="G56" s="27"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C57" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="60" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B60" s="18" t="s">
+      <c r="G57" s="27"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G58" s="27"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G59" s="29"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G60" s="29"/>
+    </row>
+    <row r="61" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B61" s="18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="61" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B61" s="16" t="s">
+      <c r="G61" s="29"/>
+    </row>
+    <row r="62" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B62" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C62" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E62" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F61" s="16" t="s">
+      <c r="F62" s="16" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C62" s="9" t="s">
+      <c r="G62" s="29"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C63" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C63" s="9" t="s">
+      <c r="G63" s="29"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C64" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C64" s="9" t="s">
+      <c r="G64" s="29"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C65" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="65" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="C65" s="12" t="s">
+      <c r="G65" s="29"/>
+    </row>
+    <row r="66" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C66" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D66" s="6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="67" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B67" s="16" t="s">
+      <c r="G66" s="29"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G67" s="29"/>
+    </row>
+    <row r="68" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B68" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C68" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F67" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="B69" s="16" t="s">
+      <c r="F68" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G68" s="27"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G69" s="29"/>
+    </row>
+    <row r="70" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B70" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C70" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E69" s="21" t="s">
+      <c r="E70" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="F69" s="22" t="s">
+      <c r="F70" s="22" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C70" s="9" t="s">
+      <c r="G70" s="29"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C71" s="9" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C71" s="9" t="s">
+      <c r="G71" s="29"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C72" s="9" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="73" spans="2:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="B73" s="16" t="s">
+      <c r="G72" s="29"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G73" s="29"/>
+    </row>
+    <row r="74" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B74" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C74" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E73" s="21" t="s">
+      <c r="E74" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="F73" s="22" t="s">
+      <c r="F74" s="22" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C74" s="9" t="s">
+      <c r="G74" s="29"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C75" s="9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C75" s="9" t="s">
+      <c r="G75" s="29"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C76" s="9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C76" s="9" t="s">
+      <c r="G76" s="29"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C77" s="9" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="78" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B78" s="16" t="s">
+      <c r="G77" s="29"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G78" s="29"/>
+    </row>
+    <row r="79" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B79" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C79" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F78" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C79" s="8" t="s">
+      <c r="F79" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G79" s="27"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C80" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="81" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B81" s="16" t="s">
+      <c r="G80" s="29"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G81" s="29"/>
+    </row>
+    <row r="82" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B82" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C82" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F81" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C82" s="8" t="s">
+      <c r="F82" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G82" s="27"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C83" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B84" s="16" t="s">
+      <c r="G83" s="29"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G84" s="29"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B85" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C85" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F84" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="C85" s="14" t="s">
+      <c r="F85" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G85" s="29"/>
+    </row>
+    <row r="86" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C86" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D85" s="14"/>
-      <c r="E85" s="23" t="s">
+      <c r="D86" s="14"/>
+      <c r="E86" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="F85" s="24" t="s">
+      <c r="F86" s="24" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C86" s="8" t="s">
+      <c r="G86" s="27"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C87" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F86" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B88" s="16" t="s">
+      <c r="F87" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G87" s="27"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G88" s="29"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B89" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C89" s="8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="89" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="C89" s="8" t="s">
+      <c r="G89" s="27"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C90" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F89" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="C90" s="14" t="s">
+      <c r="F90" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G90" s="27"/>
+    </row>
+    <row r="91" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C91" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D90" s="14"/>
-      <c r="E90" s="23" t="s">
+      <c r="D91" s="14"/>
+      <c r="E91" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="F90" s="24" t="s">
+      <c r="F91" s="24" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C91" s="8" t="s">
+      <c r="G91" s="27"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C92" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="93" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B93" s="18" t="s">
+      <c r="G92" s="27"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G93" s="29"/>
+    </row>
+    <row r="94" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B94" s="18" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="94" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="16" t="s">
+      <c r="G94" s="29"/>
+    </row>
+    <row r="95" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C95" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="E95" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F94" s="16" t="s">
+      <c r="F95" s="16" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="95" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C95" s="9" t="s">
+      <c r="G95" s="29"/>
+    </row>
+    <row r="96" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C96" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="96" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C96" s="9" t="s">
+      <c r="G96" s="29"/>
+    </row>
+    <row r="97" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C97" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C97" s="9" t="s">
+      <c r="G97" s="29"/>
+    </row>
+    <row r="98" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C98" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C98" s="12" t="s">
+      <c r="G98" s="29"/>
+    </row>
+    <row r="99" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C99" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="99" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C99" s="8" t="s">
+      <c r="G99" s="29"/>
+    </row>
+    <row r="100" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C100" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F99" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B101" s="16" t="s">
+      <c r="F100" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G100" s="27"/>
+    </row>
+    <row r="101" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G101" s="27"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B102" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C102" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F101" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C102" s="8" t="s">
+      <c r="F102" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G102" s="27"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C103" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C103" s="8" t="s">
+      <c r="G103" s="27"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C104" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C104" s="8" t="s">
+      <c r="G104" s="27"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C105" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C105" s="8" t="s">
+      <c r="G105" s="27"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C106" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C106" s="8" t="s">
+      <c r="G106" s="27"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C107" s="8" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C108" s="8" t="s">
+      <c r="G107" s="27"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G108" s="29"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C109" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F108" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C110" s="8" t="s">
+      <c r="F109" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G109" s="27"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G110" s="29"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C111" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F110" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C111" s="8" t="s">
+      <c r="F111" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G111" s="27"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C112" s="8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B113" s="18" t="s">
+      <c r="G112" s="27"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G113" s="29"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B114" s="18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="16" t="s">
+      <c r="G114" s="29"/>
+    </row>
+    <row r="115" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C115" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E114" s="6" t="s">
+      <c r="E115" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F114" s="16" t="s">
+      <c r="F115" s="16" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="115" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C115" s="9" t="s">
+      <c r="G115" s="29"/>
+    </row>
+    <row r="116" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C116" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="116" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C116" s="9" t="s">
+      <c r="G116" s="29"/>
+    </row>
+    <row r="117" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C117" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="117" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C117" s="9" t="s">
+      <c r="G117" s="29"/>
+    </row>
+    <row r="118" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C118" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="118" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C118" s="12" t="s">
+      <c r="G118" s="29"/>
+    </row>
+    <row r="119" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C119" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="119" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C119" s="8" t="s">
+      <c r="G119" s="29"/>
+    </row>
+    <row r="120" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C120" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F119" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B120" s="18"/>
-    </row>
-    <row r="121" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B121" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F121" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F120" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="G120" s="27"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B121" s="18"/>
+      <c r="G121" s="29"/>
+    </row>
+    <row r="122" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B122" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C122" s="8" t="s">
+      <c r="C122" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F122" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G122" s="27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B123" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="124" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B124" s="16" t="s">
+      <c r="F123" s="27"/>
+      <c r="G123" s="27"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G124" s="29"/>
+    </row>
+    <row r="125" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B125" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C124" s="15" t="s">
+      <c r="C125" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D124" s="15"/>
-      <c r="E124" s="23" t="s">
+      <c r="D125" s="15"/>
+      <c r="E125" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="F124" s="24" t="s">
+      <c r="F125" s="24" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C125" s="6" t="s">
+      <c r="G125" s="27"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C126" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D125" s="6" t="s">
+      <c r="D126" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="127" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="16" t="s">
+      <c r="G126" s="29"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G127" s="29"/>
+    </row>
+    <row r="128" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C128" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F127" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="128" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C128" s="8" t="s">
+      <c r="F128" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G128" s="27"/>
+    </row>
+    <row r="129" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C129" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D128" s="11"/>
-      <c r="E128" s="11"/>
-    </row>
-    <row r="129" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B130" s="18" t="s">
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="G129" s="27"/>
+    </row>
+    <row r="130" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G130" s="29"/>
+    </row>
+    <row r="131" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="18" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="131" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B131" s="16" t="s">
+      <c r="G131" s="29"/>
+    </row>
+    <row r="132" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B132" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C131" s="9" t="s">
+      <c r="C132" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D131" s="6" t="s">
+      <c r="D132" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E131" s="21" t="s">
+      <c r="E132" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="F131" s="22" t="s">
+      <c r="F132" s="22" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="132" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B132" s="16" t="s">
+      <c r="G132" s="27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B133" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C132" s="8" t="s">
+      <c r="C133" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F132" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="133" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="D133" s="6" t="s">
+      <c r="F133" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G133" s="27"/>
+    </row>
+    <row r="134" spans="2:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="D134" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E133" s="21" t="s">
+      <c r="E134" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="F133" s="22" t="s">
+      <c r="F134" s="22" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="134" spans="2:6" ht="28.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C134" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D134" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E134" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F134" s="24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="135" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G134" s="29"/>
+    </row>
+    <row r="135" spans="2:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C135" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F135" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="136" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C135" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E135" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F135" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G135" s="27"/>
+    </row>
+    <row r="136" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B136" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C136" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G136" s="27"/>
+    </row>
+    <row r="137" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B137" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F136" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="138" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="B138" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D138" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E138" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="F138" s="24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="139" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="F137" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G137" s="27"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G138" s="29"/>
+    </row>
+    <row r="139" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B139" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139" s="11"/>
-      <c r="E139" s="11"/>
-    </row>
-    <row r="140" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E139" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="F139" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G139" s="29"/>
+    </row>
+    <row r="140" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B140" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C140" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F140" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="141" spans="2:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C140" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="G140" s="29"/>
+    </row>
+    <row r="141" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B141" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C141" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G141" s="27"/>
+    </row>
+    <row r="142" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B142" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F141" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B145" s="18" t="s">
+      <c r="F142" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G142" s="27"/>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G143" s="29"/>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G144" s="29"/>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G145" s="29"/>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B146" s="18" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C146" s="8" t="s">
+      <c r="G146" s="29"/>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C147" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F146" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="147" spans="2:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="C147" s="9" t="s">
+      <c r="F147" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G147" s="29"/>
+    </row>
+    <row r="148" spans="2:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="C148" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D147" s="6" t="s">
+      <c r="D148" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E147" s="21" t="s">
+      <c r="E148" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="F147" s="22" t="s">
+      <c r="F148" s="22" t="s">
         <v>129</v>
       </c>
+      <c r="G148" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
